--- a/DFW_MSArchives_StudioMigrationProject_082021.xlsx
+++ b/DFW_MSArchives_StudioMigrationProject_082021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ee6b5e37b1485b62/UW MLIS/DFW/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6159" documentId="8_{A1ACA443-E6AB-4EB0-AB03-FA754F869C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DD8E3A2-7E9E-4DFF-A889-8FB6F7A46CDA}"/>
+  <xr:revisionPtr revIDLastSave="6649" documentId="8_{A1ACA443-E6AB-4EB0-AB03-FA754F869C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07DDAC30-5EEA-480E-9313-24FA2C8760EC}"/>
   <bookViews>
     <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{231447D4-DDC0-4EC7-B19E-651D38C1E766}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4372" uniqueCount="1660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="1788">
   <si>
     <t>Project Title</t>
   </si>
@@ -5052,6 +5052,390 @@
   </si>
   <si>
     <t>19.6 MB</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\FromProjectsFolder\20000-29999\29711_David_George_Video_Intro</t>
+  </si>
+  <si>
+    <t>Family_Safe_Computing_Italy_2Mb.wmv</t>
+  </si>
+  <si>
+    <t>29711_David_George_Video_Intro</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\StudiosMigration\Phase1\Corporate\2007\Family_Safe_Computing</t>
+  </si>
+  <si>
+    <t>86.8 MB</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\FromProjectsFolder\20000-29999\29716_oFone_Cutdown</t>
+  </si>
+  <si>
+    <t>29716_oFone_Cutdown</t>
+  </si>
+  <si>
+    <t>0Fone_Cutdown_8MB.wmv</t>
+  </si>
+  <si>
+    <t>147 MB</t>
+  </si>
+  <si>
+    <t>video already in MS Catalog: \\vfs\us\Archives\VidEventsto2016\2007\MEDC</t>
+  </si>
+  <si>
+    <t>humor video that spoof the iPhone (really from 2007), found in Xchange &amp; MS Catalog (same file size/quality)</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\FromProjectsFolder\20000-29999\29720_Thin_Client_Demo_for_China\WMVs</t>
+  </si>
+  <si>
+    <t>29720_Thin_Client_Demo_for_China</t>
+  </si>
+  <si>
+    <t>ThinClientDemo_WithoutWindowsMediaComment_1M.wmv</t>
+  </si>
+  <si>
+    <t>ThinClientDemo_1M.wmv</t>
+  </si>
+  <si>
+    <t>could not find in Xchange, not in MS Catalog or \\vfs\us\archives; videos in Chinese</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\StudiosMigration\Phase1\Products\2007\Thin_Client_Demo_China</t>
+  </si>
+  <si>
+    <t>width = 1024, height = 768, 991kbps, 15.00 frames/second</t>
+  </si>
+  <si>
+    <t>10.4 MB</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\FromProjectsFolder\20000-29999\29897_Windows_Server_Longhorn_Beta_3_Video_MBR\DVS\v2</t>
+  </si>
+  <si>
+    <t>29897_Windows_Server_Longhorn_Beta_3_Video_MBR</t>
+  </si>
+  <si>
+    <t>Windows Server Longhorn Beta 3 Video FINAL 4-3 Standard 2.1 MBPS.wmv</t>
+  </si>
+  <si>
+    <t>38.0 MB</t>
+  </si>
+  <si>
+    <t>width = 640, height = 480, 2288kbps, 29.97 frames/second</t>
+  </si>
+  <si>
+    <t>could not find in Xchange, not in MS Catalog or \\vfs\us\archives (video created in April 2007)</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\StudiosMigration\Phase1\Ads\2007\Windows_Server</t>
+  </si>
+  <si>
+    <t>AAAA_Media_Conf_Mich_Mathews_500k.wmv</t>
+  </si>
+  <si>
+    <t>29909_AAAA_Media_Conference_Edit_Clean-up</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\FromProjectsFolder\20000-29999\29909_AAAA_Media_Conference_Edit_Clean-up\DVS</t>
+  </si>
+  <si>
+    <t>184 MB</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\StudiosMigration\Phase1\Events\2007\AAAA_Media_Conference</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\FromProjectsFolder\20000-29999\29927_MEDC_2007_Keynote_on-demand\DVS</t>
+  </si>
+  <si>
+    <t>RobbieBach_Keynote_500k.wmv</t>
+  </si>
+  <si>
+    <t>29927_MEDC_2007_Keynote_on-demand</t>
+  </si>
+  <si>
+    <t>210 MB</t>
+  </si>
+  <si>
+    <t>found in Xchange, found in MS catalog &amp; \\vfs\us\archives</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\FromProjectsFolder\20000-29999\29553_System_Center_Customer_Montage_graphics\MMS_open_video\MicrosoftSystemCenter_DVS</t>
+  </si>
+  <si>
+    <t>29553_System_Center_Customer_Montage_graphics</t>
+  </si>
+  <si>
+    <t>MS_System_Center_Launch_Dell_inc_2MB.wmv</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\StudiosMigration\Phase1\Case_Studies\2007\MS_System_Center_Dell</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\FromProjectsFolder\20000-29999\29634_0308_Debugging_test_cases_MCE_Host</t>
+  </si>
+  <si>
+    <t>29634_0308_Debugging_test_cases_MCR_Host</t>
+  </si>
+  <si>
+    <t>Debugging_Test_Cases_with_MceHost_1mb.wmv</t>
+  </si>
+  <si>
+    <t>469 MB</t>
+  </si>
+  <si>
+    <t>could not find in Xchange, not in MS Catalog or \\vfs\us\archives, not sure where to move this one in Holding so moved to Corporate/2007</t>
+  </si>
+  <si>
+    <t>width = 640, height = 480, 975kbps, 29.97 frames/second</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\StudiosMigration\Phase1\Corporate\2007\MCE_Host_Debugging_Test_Case</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\FromProjectsFolder\20000-29999\29490_Robotics_Virtual_Conference\DVS\Demos</t>
+  </si>
+  <si>
+    <t>29490_Robotics_Virtual_Conference</t>
+  </si>
+  <si>
+    <t>06_CAR1.wmv</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\StudiosMigration\Phase1\Events\2007\MS_Robotics_Virtual_Conference\Demos</t>
+  </si>
+  <si>
+    <t>width = 640, height = 360, 291kbps, 10.00 frames/second</t>
+  </si>
+  <si>
+    <t>ConARob1.wmv</t>
+  </si>
+  <si>
+    <t>27.9 MB</t>
+  </si>
+  <si>
+    <t>2.01 MB</t>
+  </si>
+  <si>
+    <t>ContARob_MSRS_Demo2.wmv</t>
+  </si>
+  <si>
+    <t>width = 640, height = 360, 291kbps, 15.00 frames/second</t>
+  </si>
+  <si>
+    <t>Creativ1.wmv</t>
+  </si>
+  <si>
+    <t>Creativ2.wmv</t>
+  </si>
+  <si>
+    <t>19.5 MB</t>
+  </si>
+  <si>
+    <t>Creativ3.wmv</t>
+  </si>
+  <si>
+    <t>iBot1.wmv</t>
+  </si>
+  <si>
+    <t>32.6 MB</t>
+  </si>
+  <si>
+    <t>2.95 MB</t>
+  </si>
+  <si>
+    <t>Irobot_Demo2.wmv</t>
+  </si>
+  <si>
+    <t>width = 640, height = 480, 291kbps, 15.00 frames/second</t>
+  </si>
+  <si>
+    <t>36.7 MB</t>
+  </si>
+  <si>
+    <t>IronPy1.wmv</t>
+  </si>
+  <si>
+    <t>LanAdvn3.wmv</t>
+  </si>
+  <si>
+    <t>LangIn1.wmv</t>
+  </si>
+  <si>
+    <t>LangIn2.wmv</t>
+  </si>
+  <si>
+    <t>6.40 MB</t>
+  </si>
+  <si>
+    <t>LangIn3.wmv</t>
+  </si>
+  <si>
+    <t>LangIn4.wmv</t>
+  </si>
+  <si>
+    <t>LangIn5.wmv</t>
+  </si>
+  <si>
+    <t>9.71 MB</t>
+  </si>
+  <si>
+    <t>7.57 MB</t>
+  </si>
+  <si>
+    <t>2.56 MB</t>
+  </si>
+  <si>
+    <t>ProAdv1p1a.wmv</t>
+  </si>
+  <si>
+    <t>ProAdv1p2.wmv</t>
+  </si>
+  <si>
+    <t>31.6 MB</t>
+  </si>
+  <si>
+    <t>7.54 MB</t>
+  </si>
+  <si>
+    <t>ProAdv1p2FinalStiched.wmv</t>
+  </si>
+  <si>
+    <t>ProAdv123Stitched.wmv</t>
+  </si>
+  <si>
+    <t>36.5 MB</t>
+  </si>
+  <si>
+    <t>width = 640, height = 360, 289kbps, 10.00 frames/second</t>
+  </si>
+  <si>
+    <t>ProLanAd_Demo4.wmv</t>
+  </si>
+  <si>
+    <t>0.98 MB</t>
+  </si>
+  <si>
+    <t>width = 640, height = 480, 291kbps, 10.00 frames/second</t>
+  </si>
+  <si>
+    <t>Sim_1Na.wmv</t>
+  </si>
+  <si>
+    <t>Sim_2Na.wmv</t>
+  </si>
+  <si>
+    <t>Sim_3Na.wmv</t>
+  </si>
+  <si>
+    <t>26.3 MB</t>
+  </si>
+  <si>
+    <t>48.4 MB</t>
+  </si>
+  <si>
+    <t>width = 640, height = 360, 319kbps, 10.00 frames/second</t>
+  </si>
+  <si>
+    <t>Sim_4n.wmv</t>
+  </si>
+  <si>
+    <t>Sim_5.wmv</t>
+  </si>
+  <si>
+    <t>Sim_5Na.wmv</t>
+  </si>
+  <si>
+    <t>VBNet1.wmv</t>
+  </si>
+  <si>
+    <t>27.7 MB</t>
+  </si>
+  <si>
+    <t>width = 640, height = 360, 219kbps, 5.00 frames/second</t>
+  </si>
+  <si>
+    <t>4.46 MB</t>
+  </si>
+  <si>
+    <t>width = 640, height = 360, 219kbps, 10.00 frames/second</t>
+  </si>
+  <si>
+    <t>4.85 MB</t>
+  </si>
+  <si>
+    <t>29.3 MB</t>
+  </si>
+  <si>
+    <t>Mix07_Keynote_2Mbps.wmv</t>
+  </si>
+  <si>
+    <t>29868_MIX_07_Webcast_and_Transmission</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\FromProjectsFolder\20000-29999\29868_MIX_07_Webcast_and_Transmission\DVS\repost</t>
+  </si>
+  <si>
+    <t>1.56 GB</t>
+  </si>
+  <si>
+    <t>video already in MS Catalog: \\vfs\us\Archives\VidEventsto2016\2007\MIX</t>
+  </si>
+  <si>
+    <t>from MIX 2007 (4/30/2007), video same file size/quality as video in MS Catalog</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\FromProjectsFolder\20000-29999\29868_MIX_07_Webcast_and_Transmission\DVS</t>
+  </si>
+  <si>
+    <t>Mix07_RayOzzie_and_ScottGuthrie_2MB.wmv</t>
+  </si>
+  <si>
+    <t>2.10 GB</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\FromProjectsFolder\20000-29999\29862_Revenue_Per_Socket\DVS\4-20-07</t>
+  </si>
+  <si>
+    <t>RevenuePerSockey_300k.wmv</t>
+  </si>
+  <si>
+    <t>29862_Revenue_Per_Socket</t>
+  </si>
+  <si>
+    <t>129 MB</t>
+  </si>
+  <si>
+    <t>width = 320, height = 240, 291kbps, 29.97 frames/second (poor video quality, kept stopping throughout)</t>
+  </si>
+  <si>
+    <t>could not find in Xchange or MS Catalog (wasn't sure what to search for "socket" or "sockey"; assumed this was about Windows Socket; video from May 2007)</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\StudiosMigration\Phase1\Events\2007\Revenue_Socket</t>
+  </si>
+  <si>
+    <t>MEDC_Keynote_2007_Demo_5MB.wmv</t>
+  </si>
+  <si>
+    <t>29873_MEDC_Keynote_2007_Demo</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\FromProjectsFolder\20000-29999\29873_MEDC_Keynote_2007_Demo\WMV</t>
+  </si>
+  <si>
+    <t>384 MB</t>
+  </si>
+  <si>
+    <t>width = 640, height = 480, 4991kbps, 29.97 frames/second</t>
+  </si>
+  <si>
+    <t>found in Xchange, this video not in MS Catalog or \\vfs\us\archives (similar videos from event located \\vfs\us\Archives\VidEventsto2016\2007\MEDC)</t>
+  </si>
+  <si>
+    <t>\\vfs\us\Archives\Archive1\ToBeCatalogued\StudiosMigration\Phase1\Events\2007\MEDC</t>
   </si>
 </sst>
 </file>
@@ -5535,11 +5919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{308E27A7-F1B9-4250-9C95-FEE13022AD8C}">
-  <dimension ref="A1:L467"/>
+  <dimension ref="A1:L501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A460" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A462" sqref="A462"/>
+      <pane ySplit="1" topLeftCell="A498" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A502" sqref="A502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -23076,23 +23460,1525 @@
         <v>81</v>
       </c>
     </row>
-    <row r="462" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B462" s="1"/>
-    </row>
-    <row r="463" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B463" s="1"/>
-    </row>
-    <row r="464" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B464" s="1"/>
-    </row>
-    <row r="465" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B465" s="1"/>
-    </row>
-    <row r="466" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B466" s="1"/>
-    </row>
-    <row r="467" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B467" s="1"/>
+    <row r="462" spans="1:12" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A462" s="2" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B462" s="1">
+        <v>39169</v>
+      </c>
+      <c r="C462" s="23">
+        <v>4.340277777777778E-3</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>1662</v>
+      </c>
+      <c r="E462" s="24">
+        <v>53418</v>
+      </c>
+      <c r="F462" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="G462" s="4" t="s">
+        <v>1663</v>
+      </c>
+      <c r="H462" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I462" t="s">
+        <v>1664</v>
+      </c>
+      <c r="J462" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K462" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L462" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A463" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B463" s="1">
+        <v>40204</v>
+      </c>
+      <c r="C463" s="23">
+        <v>1.8750000000000001E-3</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="E463" s="24">
+        <v>53466</v>
+      </c>
+      <c r="F463" s="4" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G463" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H463" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I463" t="s">
+        <v>1668</v>
+      </c>
+      <c r="J463" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="K463" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L463" s="2" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A464" s="2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B464" s="1">
+        <v>39171</v>
+      </c>
+      <c r="C464" s="23">
+        <v>3.6921296296296298E-3</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E464" t="s">
+        <v>42</v>
+      </c>
+      <c r="F464" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G464" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H464" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I464" t="s">
+        <v>1518</v>
+      </c>
+      <c r="J464" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="K464" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L464" s="2" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A465" s="2" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B465" s="1">
+        <v>39171</v>
+      </c>
+      <c r="C465" s="23">
+        <v>3.7037037037037034E-3</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E465" t="s">
+        <v>42</v>
+      </c>
+      <c r="F465" s="4" t="s">
+        <v>1671</v>
+      </c>
+      <c r="G465" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="H465" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I465" t="s">
+        <v>1678</v>
+      </c>
+      <c r="J465" s="2" t="s">
+        <v>1677</v>
+      </c>
+      <c r="K465" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L465" s="2" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A466" s="2" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B466" s="1">
+        <v>40204</v>
+      </c>
+      <c r="C466" s="23">
+        <v>2.1180555555555553E-3</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>1680</v>
+      </c>
+      <c r="E466" t="s">
+        <v>42</v>
+      </c>
+      <c r="F466" s="4" t="s">
+        <v>1679</v>
+      </c>
+      <c r="G466" s="4" t="s">
+        <v>1685</v>
+      </c>
+      <c r="H466" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I466" t="s">
+        <v>1682</v>
+      </c>
+      <c r="J466" s="2" t="s">
+        <v>1683</v>
+      </c>
+      <c r="K466" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L466" s="2" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A467" s="2" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B467" s="1">
+        <v>39200</v>
+      </c>
+      <c r="C467" s="23">
+        <v>3.6770833333333336E-2</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E467" s="24">
+        <v>53175</v>
+      </c>
+      <c r="F467" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="G467" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="H467" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I467" t="s">
+        <v>1689</v>
+      </c>
+      <c r="J467" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K467" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L467" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A468" s="2" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B468" s="1">
+        <v>40204</v>
+      </c>
+      <c r="C468" s="23">
+        <v>4.1284722222222223E-2</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E468" s="24">
+        <v>53242</v>
+      </c>
+      <c r="F468" s="4" t="s">
+        <v>1691</v>
+      </c>
+      <c r="G468" s="2" t="s">
+        <v>1669</v>
+      </c>
+      <c r="H468" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I468" t="s">
+        <v>1694</v>
+      </c>
+      <c r="J468" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K468" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L468" s="2" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A469" s="2" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B469" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C469" s="23">
+        <v>7.175925925925927E-4</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E469" s="24">
+        <v>53166</v>
+      </c>
+      <c r="F469" s="4" t="s">
+        <v>1696</v>
+      </c>
+      <c r="G469" s="4" t="s">
+        <v>1699</v>
+      </c>
+      <c r="H469" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I469" t="s">
+        <v>1403</v>
+      </c>
+      <c r="J469" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K469" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L469" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A470" s="2" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B470" s="1">
+        <v>39156</v>
+      </c>
+      <c r="C470" s="23">
+        <v>4.6504629629629625E-2</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E470" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F470" s="4" t="s">
+        <v>1700</v>
+      </c>
+      <c r="G470" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="H470" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I470" t="s">
+        <v>1703</v>
+      </c>
+      <c r="J470" s="2" t="s">
+        <v>1705</v>
+      </c>
+      <c r="K470" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L470" s="2" t="s">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A471" s="2" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B471" s="1">
+        <v>39140</v>
+      </c>
+      <c r="C471" s="23">
+        <v>1.074074074074074E-2</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E471" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F471" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G471" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H471" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I471" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J471" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K471" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L471" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A472" s="2" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B472" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C472" s="23">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E472" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F472" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G472" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H472" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I472" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J472" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K472" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L472" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A473" s="2" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B473" s="1">
+        <v>39136</v>
+      </c>
+      <c r="C473" s="23">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E473" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F473" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G473" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H473" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I473" t="s">
+        <v>1714</v>
+      </c>
+      <c r="J473" s="2" t="s">
+        <v>1716</v>
+      </c>
+      <c r="K473" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L473" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A474" s="2" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B474" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C474" s="23">
+        <v>9.0277777777777787E-3</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E474" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F474" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G474" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H474" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I474" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J474" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K474" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L474" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A475" s="2" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B475" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C475" s="23">
+        <v>9.0393518518518522E-3</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E475" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F475" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G475" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H475" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I475" t="s">
+        <v>1713</v>
+      </c>
+      <c r="J475" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K475" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L475" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A476" s="2" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B476" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C476" s="23">
+        <v>6.3194444444444444E-3</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E476" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F476" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G476" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H476" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I476" t="s">
+        <v>1719</v>
+      </c>
+      <c r="J476" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K476" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L476" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A477" s="2" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B477" s="1">
+        <v>39147</v>
+      </c>
+      <c r="C477" s="23">
+        <v>1.0752314814814814E-2</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E477" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F477" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G477" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H477" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I477" t="s">
+        <v>1722</v>
+      </c>
+      <c r="J477" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K477" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L477" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A478" s="2" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B478" s="1">
+        <v>39136</v>
+      </c>
+      <c r="C478" s="23">
+        <v>9.3750000000000007E-4</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E478" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F478" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G478" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H478" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I478" t="s">
+        <v>1723</v>
+      </c>
+      <c r="J478" s="2" t="s">
+        <v>1725</v>
+      </c>
+      <c r="K478" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L478" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A479" s="2" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B479" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C479" s="23">
+        <v>1.1944444444444445E-2</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E479" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F479" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G479" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H479" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I479" t="s">
+        <v>1726</v>
+      </c>
+      <c r="J479" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K479" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L479" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A480" s="2" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B480" s="1">
+        <v>39139</v>
+      </c>
+      <c r="C480" s="23">
+        <v>1.1296296296296296E-2</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E480" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F480" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G480" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H480" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I480" t="s">
+        <v>414</v>
+      </c>
+      <c r="J480" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K480" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L480" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A481" s="2" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B481" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C481" s="23">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E481" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F481" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G481" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H481" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I481" t="s">
+        <v>1731</v>
+      </c>
+      <c r="J481" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K481" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L481" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A482" s="2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B482" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C482" s="23">
+        <v>2.2916666666666667E-3</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E482" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F482" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G482" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H482" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I482" t="s">
+        <v>1245</v>
+      </c>
+      <c r="J482" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K482" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L482" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A483" s="2" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B483" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C483" s="23">
+        <v>3.1365740740740742E-3</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E483" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F483" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G483" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H483" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I483" t="s">
+        <v>1735</v>
+      </c>
+      <c r="J483" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K483" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L483" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A484" s="2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B484" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C484" s="23">
+        <v>2.4421296296296296E-3</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E484" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F484" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G484" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H484" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I484" t="s">
+        <v>1736</v>
+      </c>
+      <c r="J484" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K484" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L484" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A485" s="2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B485" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C485" s="23">
+        <v>8.1018518518518516E-4</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E485" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F485" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G485" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H485" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I485" t="s">
+        <v>1737</v>
+      </c>
+      <c r="J485" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K485" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L485" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A486" s="2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B486" s="1">
+        <v>39140</v>
+      </c>
+      <c r="C486" s="23">
+        <v>1.0613425925925927E-2</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E486" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F486" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G486" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H486" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I486" t="s">
+        <v>1740</v>
+      </c>
+      <c r="J486" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K486" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L486" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A487" s="2" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B487" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C487" s="23">
+        <v>2.4305555555555556E-3</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E487" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F487" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G487" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H487" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I487" t="s">
+        <v>1741</v>
+      </c>
+      <c r="J487" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K487" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L487" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A488" s="2" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B488" s="1">
+        <v>39140</v>
+      </c>
+      <c r="C488" s="23">
+        <v>1.3055555555555556E-2</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E488" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F488" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G488" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H488" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I488" t="s">
+        <v>239</v>
+      </c>
+      <c r="J488" s="2" t="s">
+        <v>1711</v>
+      </c>
+      <c r="K488" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L488" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A489" s="2" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B489" s="1">
+        <v>39140</v>
+      </c>
+      <c r="C489" s="23">
+        <v>1.4224537037037037E-2</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E489" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F489" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G489" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H489" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I489" t="s">
+        <v>1744</v>
+      </c>
+      <c r="J489" s="2" t="s">
+        <v>1745</v>
+      </c>
+      <c r="K489" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L489" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A490" s="2" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B490" s="1">
+        <v>39139</v>
+      </c>
+      <c r="C490" s="23">
+        <v>2.8935185185185189E-4</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E490" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F490" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G490" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H490" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I490" t="s">
+        <v>1747</v>
+      </c>
+      <c r="J490" s="2" t="s">
+        <v>1748</v>
+      </c>
+      <c r="K490" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L490" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A491" s="2" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B491" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C491" s="23">
+        <v>7.8819444444444432E-3</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E491" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F491" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G491" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H491" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I491" t="s">
+        <v>1752</v>
+      </c>
+      <c r="J491" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="K491" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L491" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A492" s="2" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B492" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C492" s="23">
+        <v>5.7175925925925927E-3</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E492" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F492" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G492" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H492" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I492" t="s">
+        <v>717</v>
+      </c>
+      <c r="J492" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="K492" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L492" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A493" s="2" t="s">
+        <v>1751</v>
+      </c>
+      <c r="B493" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C493" s="23">
+        <v>1.4513888888888889E-2</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E493" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F493" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G493" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H493" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I493" t="s">
+        <v>1753</v>
+      </c>
+      <c r="J493" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="K493" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L493" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A494" s="2" t="s">
+        <v>1755</v>
+      </c>
+      <c r="B494" s="1">
+        <v>39195</v>
+      </c>
+      <c r="C494" s="23">
+        <v>9.0972222222222218E-3</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E494" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F494" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G494" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H494" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I494" t="s">
+        <v>1759</v>
+      </c>
+      <c r="J494" s="2" t="s">
+        <v>1760</v>
+      </c>
+      <c r="K494" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L494" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A495" s="2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B495" s="1">
+        <v>39134</v>
+      </c>
+      <c r="C495" s="23">
+        <v>1.4467592592592594E-3</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E495" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F495" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G495" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H495" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I495" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J495" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="K495" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L495" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A496" s="2" t="s">
+        <v>1757</v>
+      </c>
+      <c r="B496" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C496" s="23">
+        <v>1.4467592592592594E-3</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E496" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F496" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G496" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H496" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I496" t="s">
+        <v>1763</v>
+      </c>
+      <c r="J496" s="2" t="s">
+        <v>1754</v>
+      </c>
+      <c r="K496" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L496" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A497" s="2" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B497" s="1">
+        <v>39135</v>
+      </c>
+      <c r="C497" s="23">
+        <v>9.5138888888888894E-3</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>1708</v>
+      </c>
+      <c r="E497" s="24">
+        <v>53481</v>
+      </c>
+      <c r="F497" s="4" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G497" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="H497" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I497" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J497" s="2" t="s">
+        <v>1762</v>
+      </c>
+      <c r="K497" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L497" s="2" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A498" s="2" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B498" s="1">
+        <v>40204</v>
+      </c>
+      <c r="C498" s="23">
+        <v>7.7708333333333338E-2</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E498" s="24">
+        <v>53298</v>
+      </c>
+      <c r="F498" s="4" t="s">
+        <v>1767</v>
+      </c>
+      <c r="G498" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H498" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I498" t="s">
+        <v>1768</v>
+      </c>
+      <c r="J498" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="K498" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L498" s="2" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A499" s="2" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B499" s="1">
+        <v>39202</v>
+      </c>
+      <c r="C499" s="23">
+        <v>5.6087962962962958E-2</v>
+      </c>
+      <c r="D499" s="2" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E499" s="24">
+        <v>53298</v>
+      </c>
+      <c r="F499" s="4" t="s">
+        <v>1771</v>
+      </c>
+      <c r="G499" s="2" t="s">
+        <v>1769</v>
+      </c>
+      <c r="H499" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I499" t="s">
+        <v>1773</v>
+      </c>
+      <c r="J499" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K499" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L499" s="2" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A500" s="2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B500" s="1">
+        <v>40204</v>
+      </c>
+      <c r="C500" s="23">
+        <v>4.2025462962962966E-2</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>1776</v>
+      </c>
+      <c r="E500" t="s">
+        <v>42</v>
+      </c>
+      <c r="F500" s="4" t="s">
+        <v>1774</v>
+      </c>
+      <c r="G500" s="4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="H500" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I500" t="s">
+        <v>1777</v>
+      </c>
+      <c r="J500" s="2" t="s">
+        <v>1778</v>
+      </c>
+      <c r="K500" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L500" s="2" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A501" s="2" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B501" s="1">
+        <v>39209</v>
+      </c>
+      <c r="C501" s="23">
+        <v>7.4537037037037028E-3</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E501" s="24">
+        <v>53983</v>
+      </c>
+      <c r="F501" s="4" t="s">
+        <v>1783</v>
+      </c>
+      <c r="G501" s="4" t="s">
+        <v>1787</v>
+      </c>
+      <c r="H501" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I501" t="s">
+        <v>1784</v>
+      </c>
+      <c r="J501" s="2" t="s">
+        <v>1785</v>
+      </c>
+      <c r="K501" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L501" s="2" t="s">
+        <v>1786</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -23887,9 +25773,66 @@
     <hyperlink ref="F461" r:id="rId789" xr:uid="{88E806A5-B39B-4EE9-84AA-BA3D29962700}"/>
     <hyperlink ref="G460" r:id="rId790" xr:uid="{D05BA729-28CA-47A1-9162-9F5CC13A8F34}"/>
     <hyperlink ref="G461" r:id="rId791" xr:uid="{701A2971-F59B-44DD-9792-666DC32E152C}"/>
+    <hyperlink ref="F462" r:id="rId792" xr:uid="{3544F668-97D7-4389-B448-6F2B8416AAE8}"/>
+    <hyperlink ref="G462" r:id="rId793" xr:uid="{4EC00511-A6C6-4263-8A77-39E931704DAB}"/>
+    <hyperlink ref="F463" r:id="rId794" xr:uid="{19C62EC9-8528-4457-8C08-D5B3E35FEF74}"/>
+    <hyperlink ref="F464" r:id="rId795" xr:uid="{7C24917E-1BD8-467C-896D-996DC7E30654}"/>
+    <hyperlink ref="F465" r:id="rId796" xr:uid="{856F5002-F68C-4A40-B767-5217F8AC3B08}"/>
+    <hyperlink ref="G464" r:id="rId797" xr:uid="{4B6E4C73-979B-4768-924E-9DAF0C0CE0A8}"/>
+    <hyperlink ref="G465" r:id="rId798" xr:uid="{D3F974F6-4204-49A7-99BB-C82A77DAD5B8}"/>
+    <hyperlink ref="F466" r:id="rId799" xr:uid="{99AAD24D-2FD2-4A35-A8B2-7A557007412B}"/>
+    <hyperlink ref="G466" r:id="rId800" xr:uid="{21BF7D19-0844-4F64-BEC0-642BC2FEA856}"/>
+    <hyperlink ref="F467" r:id="rId801" xr:uid="{95997BBA-B555-4AAF-B9F8-6FDA3A552729}"/>
+    <hyperlink ref="G467" r:id="rId802" xr:uid="{282617CB-7636-4616-B459-F6CF5D2B2167}"/>
+    <hyperlink ref="F468" r:id="rId803" xr:uid="{6E7FD99C-C41D-4C4F-808F-E4DC2BDFF518}"/>
+    <hyperlink ref="F469" r:id="rId804" xr:uid="{48674D69-7DE9-4892-844E-8DF66DC5A642}"/>
+    <hyperlink ref="G469" r:id="rId805" xr:uid="{0A58A13F-9F06-4785-9CF9-D7FC01F12C39}"/>
+    <hyperlink ref="F470" r:id="rId806" xr:uid="{B1DD4E5A-93C1-45EA-BB01-87D757DF4501}"/>
+    <hyperlink ref="G470" r:id="rId807" xr:uid="{827B291C-4807-4996-9387-D9F918F43E60}"/>
+    <hyperlink ref="F471" r:id="rId808" xr:uid="{D343E687-03D0-4241-9A6E-3E77E687BB08}"/>
+    <hyperlink ref="F472" r:id="rId809" xr:uid="{96C250DE-0C73-49F4-A0CB-004239E6112F}"/>
+    <hyperlink ref="F473" r:id="rId810" xr:uid="{FD48C394-D9A5-454E-945B-4E524C75A916}"/>
+    <hyperlink ref="F474" r:id="rId811" xr:uid="{9B0604BF-76B1-4262-97FB-E62FA9C5688F}"/>
+    <hyperlink ref="F475" r:id="rId812" xr:uid="{379F9D7B-7FE6-4C48-9752-BE8CE1C2BE1F}"/>
+    <hyperlink ref="F476" r:id="rId813" xr:uid="{DCDA9EA8-7681-4C09-B046-D9C8D3B1A151}"/>
+    <hyperlink ref="F477" r:id="rId814" xr:uid="{1F02F49C-477A-42DE-8239-3E731DC2FB7E}"/>
+    <hyperlink ref="F478" r:id="rId815" xr:uid="{4C498D56-56D9-4E27-97F3-4F0582623A66}"/>
+    <hyperlink ref="F479" r:id="rId816" xr:uid="{ABC1BB40-22A5-4156-B66A-524E83CD45EA}"/>
+    <hyperlink ref="F480" r:id="rId817" xr:uid="{0C2737A7-6929-4A54-B03F-E28CD7639984}"/>
+    <hyperlink ref="F481" r:id="rId818" xr:uid="{453C7DF9-0D40-475B-BCDC-5D99E77B11EF}"/>
+    <hyperlink ref="F482" r:id="rId819" xr:uid="{1000FB20-0118-4BA5-8698-FD3D53002AB9}"/>
+    <hyperlink ref="F483" r:id="rId820" xr:uid="{8289C8DD-3BE0-4E06-BADF-CFC1EF2DD3A8}"/>
+    <hyperlink ref="F484" r:id="rId821" xr:uid="{90F6A57F-80F4-494D-B181-20C728BF43A9}"/>
+    <hyperlink ref="F485" r:id="rId822" xr:uid="{990B9E26-B785-4061-A79E-0FD9FC795247}"/>
+    <hyperlink ref="F486" r:id="rId823" xr:uid="{FD3E6033-FD72-41BE-8CC2-C10D2892E464}"/>
+    <hyperlink ref="F487" r:id="rId824" xr:uid="{423E7E53-A0CD-4E51-B608-6B877EE32E0B}"/>
+    <hyperlink ref="F488" r:id="rId825" xr:uid="{313AEBE1-B41B-4D0A-9E37-701AD1E900ED}"/>
+    <hyperlink ref="F489" r:id="rId826" xr:uid="{0C1A07DA-9C61-4A76-AE7C-621AFBA91239}"/>
+    <hyperlink ref="F490" r:id="rId827" xr:uid="{BA002501-6CFA-4202-8F6E-0770DF557312}"/>
+    <hyperlink ref="F491" r:id="rId828" xr:uid="{FAA17516-9C2E-4F7F-AC64-87EAE852BE21}"/>
+    <hyperlink ref="F492" r:id="rId829" xr:uid="{3B4D8A9F-AF96-4B01-8171-E62CBB644BD6}"/>
+    <hyperlink ref="F493" r:id="rId830" xr:uid="{DEA13BA4-154F-41F5-88F9-9C904408311E}"/>
+    <hyperlink ref="F494" r:id="rId831" xr:uid="{93BA7573-5A0A-44AC-BFA9-DD99AF7FBC81}"/>
+    <hyperlink ref="F495" r:id="rId832" xr:uid="{19228DE2-B6D3-4FBB-B8C0-118EB0573CE1}"/>
+    <hyperlink ref="F496" r:id="rId833" xr:uid="{BD3B68BC-0FF4-4176-B61B-933D369C298F}"/>
+    <hyperlink ref="F497" r:id="rId834" xr:uid="{BC48B9ED-1EA5-4A3A-AC14-CF0E988BF8BA}"/>
+    <hyperlink ref="G471" r:id="rId835" xr:uid="{BEC3D5C9-EB88-484E-9269-3FEA42658EFB}"/>
+    <hyperlink ref="G472" r:id="rId836" xr:uid="{CF7F1580-6903-492D-8134-91FE74FED686}"/>
+    <hyperlink ref="G473" r:id="rId837" xr:uid="{C85EC50B-3298-4A20-A05C-7F4A16834CE8}"/>
+    <hyperlink ref="G474" r:id="rId838" xr:uid="{915156E8-EFEC-4DD1-A1E2-2E2531AFE11D}"/>
+    <hyperlink ref="G475" r:id="rId839" xr:uid="{1C5722BE-CCD2-446D-8390-112B1F2E8AD6}"/>
+    <hyperlink ref="G476" r:id="rId840" xr:uid="{1F8361F0-FD65-4D0B-92DA-E574A7FBEE2E}"/>
+    <hyperlink ref="G477" r:id="rId841" xr:uid="{D0805AE8-D447-4057-81CD-2686C1F8350C}"/>
+    <hyperlink ref="G478:G497" r:id="rId842" display="\\vfs\us\Archives\Archive1\ToBeCatalogued\StudiosMigration\Phase1\Events\2007\MS_Robotics_Virtual_Conference\Demos" xr:uid="{E920A748-BCEE-4D58-9869-07AC82D157C0}"/>
+    <hyperlink ref="F498" r:id="rId843" xr:uid="{154B06FB-8E32-4CA6-9EBC-055280CEB8B2}"/>
+    <hyperlink ref="F499" r:id="rId844" xr:uid="{448A5E92-0D7D-4B1D-9A00-FAD223AEFBC9}"/>
+    <hyperlink ref="F500" r:id="rId845" xr:uid="{318C9AC7-74D0-4320-A7C7-856D59D8AA6E}"/>
+    <hyperlink ref="G500" r:id="rId846" xr:uid="{2057E8F6-17FA-4CB8-BF81-856E634DD58A}"/>
+    <hyperlink ref="F501" r:id="rId847" xr:uid="{7E134D2D-E213-4259-97CF-3C49A5E39493}"/>
+    <hyperlink ref="G501" r:id="rId848" xr:uid="{A9DD97C2-B14F-4C47-A5DF-57081B0FF002}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId792"/>
+  <pageSetup orientation="portrait" r:id="rId849"/>
 </worksheet>
 </file>
 
